--- a/Assets/Levels/Halloween Game Jam 2025 (2).xlsx
+++ b/Assets/Levels/Halloween Game Jam 2025 (2).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6976D5-A5F5-48F5-BDA2-A3F06C8B5F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18BEA1C-B911-441D-B9AA-7610B4F8E111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1.1" sheetId="1" r:id="rId1"/>
@@ -293,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -915,6 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,12 +1261,12 @@
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1301,7 @@
       </c>
       <c r="AE1" s="17"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -1327,7 +1333,7 @@
       </c>
       <c r="AE2" s="21"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1361,7 +1367,7 @@
       <c r="AD3" s="20"/>
       <c r="AE3" s="21"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1395,7 +1401,7 @@
       <c r="AD4" s="20"/>
       <c r="AE4" s="21"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1431,7 +1437,7 @@
       <c r="AD5" s="20"/>
       <c r="AE5" s="21"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1471,7 +1477,7 @@
       </c>
       <c r="AE6" s="21"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1517,7 @@
       <c r="AD7" s="20"/>
       <c r="AE7" s="21"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20" t="s">
@@ -1553,7 +1559,7 @@
       <c r="AD8" s="20"/>
       <c r="AE8" s="21"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
@@ -1589,7 +1595,7 @@
       <c r="AD9" s="20"/>
       <c r="AE9" s="21"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -1635,7 +1641,7 @@
       </c>
       <c r="AE10" s="25"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -1653,7 +1659,7 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
@@ -1685,7 +1691,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1706,7 @@
       </c>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1709,7 +1715,7 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="32"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
@@ -1721,7 +1727,7 @@
       </c>
       <c r="Q15" s="32"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1785,7 @@
       <c r="P18" s="31"/>
       <c r="Q18" s="32"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>3</v>
       </c>
@@ -1805,7 +1811,7 @@
       </c>
       <c r="Q19" s="32"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
@@ -1829,7 +1835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20" t="s">
@@ -1859,7 +1865,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -1879,7 +1885,7 @@
       <c r="P22" s="31"/>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -1901,7 +1907,7 @@
       </c>
       <c r="Q23" s="32"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>3</v>
       </c>
@@ -1927,7 +1933,7 @@
       </c>
       <c r="Q24" s="36"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20" t="s">
@@ -1943,7 +1949,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
@@ -1955,7 +1961,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
@@ -1967,7 +1973,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -1979,7 +1985,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>3</v>
       </c>
@@ -2015,9 +2021,9 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="44"/>
       <c r="B1" s="44"/>
       <c r="C1" s="53"/>
@@ -2049,7 +2055,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="72"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="53"/>
@@ -2074,7 +2080,7 @@
       <c r="AC2" s="44"/>
       <c r="AE2" s="73"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="53"/>
@@ -2103,7 +2109,7 @@
       <c r="AC3" s="44"/>
       <c r="AE3" s="73"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="53"/>
@@ -2130,7 +2136,7 @@
       <c r="AC4" s="44"/>
       <c r="AE4" s="73"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="53"/>
@@ -2151,7 +2157,7 @@
       <c r="AC5" s="44"/>
       <c r="AE5" s="73"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="53"/>
@@ -2178,7 +2184,7 @@
       <c r="AC6" s="44"/>
       <c r="AE6" s="73"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="53"/>
@@ -2205,7 +2211,7 @@
       <c r="AC7" s="44"/>
       <c r="AE7" s="73"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="53"/>
@@ -2232,7 +2238,7 @@
       <c r="AC8" s="44"/>
       <c r="AE8" s="73"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="53"/>
@@ -2259,7 +2265,7 @@
       <c r="AC9" s="44"/>
       <c r="AE9" s="73"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="53"/>
@@ -2280,7 +2286,7 @@
       <c r="AC10" s="44"/>
       <c r="AE10" s="73"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53"/>
@@ -2311,7 +2317,7 @@
       <c r="AD11" s="7"/>
       <c r="AE11" s="74"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="53"/>
@@ -2330,7 +2336,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2339,7 +2345,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
@@ -2385,13 +2391,13 @@
       </c>
       <c r="Q16" s="32"/>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="30" t="s">
         <v>33</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
         <v>33</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
         <v>33</v>
       </c>
@@ -2431,13 +2437,13 @@
       </c>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="30"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
@@ -2465,9 +2471,9 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -2502,7 +2508,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="53"/>
       <c r="B2" s="13"/>
       <c r="C2" s="53"/>
@@ -2532,7 +2538,7 @@
       <c r="AB2" s="53"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="53"/>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -2564,7 +2570,7 @@
       <c r="AB3" s="53"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="13"/>
       <c r="C4" s="53"/>
@@ -2598,7 +2604,7 @@
       <c r="AB4" s="53"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -2624,7 +2630,7 @@
       <c r="AB5" s="53"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="53"/>
       <c r="B6" s="13"/>
       <c r="C6" s="53"/>
@@ -2658,7 +2664,7 @@
       <c r="AB6" s="53"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -2690,7 +2696,7 @@
       <c r="AB7" s="53"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
       <c r="B8" s="13"/>
       <c r="C8" s="53"/>
@@ -2722,7 +2728,7 @@
       <c r="AB8" s="53"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -2756,7 +2762,7 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="8"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
       <c r="B10" s="13"/>
       <c r="C10" s="53"/>
@@ -2772,7 +2778,7 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="32"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -2794,7 +2800,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
@@ -2816,7 +2822,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2825,7 +2831,7 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2840,7 +2846,7 @@
       </c>
       <c r="Q14" s="39"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
@@ -2871,13 +2877,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="37" t="s">
         <v>33</v>
       </c>
@@ -2889,7 +2895,7 @@
       </c>
       <c r="Q18" s="39"/>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="37" t="s">
         <v>33</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
         <v>33</v>
       </c>
@@ -2917,13 +2923,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="30"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
@@ -2935,7 +2941,7 @@
       </c>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="14:17">
+    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N23" s="34" t="s">
         <v>8</v>
       </c>
@@ -2963,9 +2969,9 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="83"/>
       <c r="B1" s="83"/>
       <c r="C1" s="58"/>
@@ -3000,7 +3006,7 @@
       <c r="AD1" s="66"/>
       <c r="AE1" s="45"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
       <c r="C2" s="58"/>
@@ -3032,7 +3038,7 @@
       <c r="AD2" s="85"/>
       <c r="AE2" s="46"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="53"/>
       <c r="C3" s="58"/>
@@ -3068,7 +3074,7 @@
       <c r="AD3" s="85"/>
       <c r="AE3" s="46"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="13"/>
       <c r="C4" s="58"/>
@@ -3102,7 +3108,7 @@
       <c r="AD4" s="87"/>
       <c r="AE4" s="46"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="58"/>
@@ -3130,7 +3136,7 @@
       <c r="AD5" s="83"/>
       <c r="AE5" s="46"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -3164,7 +3170,7 @@
       <c r="AD6" s="67"/>
       <c r="AE6" s="46"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -3198,7 +3204,7 @@
       <c r="AD7" s="53"/>
       <c r="AE7" s="46"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="67"/>
       <c r="B8" s="67"/>
       <c r="C8" s="83"/>
@@ -3232,7 +3238,7 @@
       <c r="AD8" s="53"/>
       <c r="AE8" s="46"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="67"/>
       <c r="B9" s="67"/>
       <c r="C9" s="83"/>
@@ -3266,7 +3272,7 @@
       <c r="AD9" s="53"/>
       <c r="AE9" s="46"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="67"/>
       <c r="B10" s="67"/>
       <c r="C10" s="83"/>
@@ -3294,7 +3300,7 @@
       <c r="AD10" s="92"/>
       <c r="AE10" s="93"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="87"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -3316,7 +3322,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
@@ -3338,7 +3344,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3347,7 +3353,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
@@ -3393,13 +3399,13 @@
       </c>
       <c r="Q16" s="32"/>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="30" t="s">
         <v>33</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
         <v>33</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
         <v>33</v>
       </c>
@@ -3439,13 +3445,13 @@
       </c>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="30"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
@@ -3473,9 +3479,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="E1" s="53"/>
@@ -3506,7 +3512,7 @@
       <c r="AD1" s="52"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
       <c r="E2" s="53"/>
@@ -3530,7 +3536,7 @@
       <c r="AD2" s="53"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="53"/>
       <c r="B3" s="53"/>
       <c r="F3" s="53"/>
@@ -3554,7 +3560,7 @@
       <c r="AC3" s="53"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="E4" s="53"/>
@@ -3582,7 +3588,7 @@
       <c r="AD4" s="53"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="E5" s="53"/>
@@ -3602,7 +3608,7 @@
       <c r="AD5" s="53"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="E6" s="53"/>
@@ -3626,7 +3632,7 @@
       <c r="AC6" s="53"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
       <c r="E7" s="53"/>
@@ -3652,7 +3658,7 @@
       <c r="AD7" s="53"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
       <c r="E8" s="53"/>
@@ -3678,7 +3684,7 @@
       <c r="AD8" s="53"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
       <c r="F9" s="53"/>
@@ -3702,7 +3708,7 @@
       <c r="AC9" s="53"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
       <c r="E10" s="53"/>
@@ -3726,7 +3732,7 @@
       <c r="AD10" s="54"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
       <c r="E11" s="53"/>
@@ -3744,7 +3750,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
       <c r="E12" s="53"/>
@@ -3761,7 +3767,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3770,7 +3776,7 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -3785,7 +3791,7 @@
       </c>
       <c r="Q14" s="39"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -3802,7 +3808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="37" t="s">
         <v>8</v>
       </c>
@@ -3816,13 +3822,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="37" t="s">
         <v>33</v>
       </c>
@@ -3834,7 +3840,7 @@
       </c>
       <c r="Q18" s="39"/>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="37" t="s">
         <v>33</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
         <v>33</v>
       </c>
@@ -3862,13 +3868,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="30"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
@@ -3880,7 +3886,7 @@
       </c>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="14:17">
+    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N23" s="34" t="s">
         <v>8</v>
       </c>
@@ -3906,9 +3912,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
         <v>2</v>
       </c>
@@ -3933,7 +3939,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N2" s="37" t="s">
         <v>6</v>
       </c>
@@ -3945,7 +3951,7 @@
       <c r="T2" s="4"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N3" s="30" t="s">
         <v>8</v>
       </c>
@@ -3959,7 +3965,7 @@
       <c r="T3" s="4"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
@@ -3975,7 +3981,7 @@
       <c r="T4" s="4"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N5" s="30"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -3983,7 +3989,7 @@
       <c r="T5" s="4"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N6" s="37" t="s">
         <v>8</v>
       </c>
@@ -3997,7 +4003,7 @@
       <c r="T6" s="4"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N7" s="37" t="s">
         <v>8</v>
       </c>
@@ -4013,7 +4019,7 @@
       <c r="V7" s="44"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N8" s="37" t="s">
         <v>8</v>
       </c>
@@ -4029,7 +4035,7 @@
       <c r="V8" s="44"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -4048,7 +4054,7 @@
       <c r="V9" s="44"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -4069,7 +4075,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -4084,7 +4090,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N12" s="30" t="s">
         <v>8</v>
       </c>
@@ -4096,7 +4102,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -4105,7 +4111,7 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -4120,7 +4126,7 @@
       </c>
       <c r="Q14" s="39"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -4137,7 +4143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="37" t="s">
         <v>8</v>
       </c>
@@ -4151,13 +4157,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="37" t="s">
         <v>33</v>
       </c>
@@ -4169,7 +4175,7 @@
       </c>
       <c r="Q18" s="39"/>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="37" t="s">
         <v>33</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
         <v>33</v>
       </c>
@@ -4197,13 +4203,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="30"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
@@ -4215,7 +4221,7 @@
       </c>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="14:17">
+    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N23" s="34" t="s">
         <v>8</v>
       </c>
@@ -4243,9 +4249,9 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="44"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -4280,7 +4286,7 @@
       <c r="AD1" s="64"/>
       <c r="AE1" s="72"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="E2" s="13"/>
       <c r="H2" s="13"/>
@@ -4298,7 +4304,7 @@
       <c r="AC2" s="13"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="E3" s="13"/>
       <c r="H3" s="13"/>
@@ -4327,7 +4333,7 @@
       <c r="AD3" s="13"/>
       <c r="AE3" s="46"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -4354,7 +4360,7 @@
       <c r="AC4" s="13"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="E5" s="13"/>
       <c r="H5" s="13"/>
@@ -4368,7 +4374,7 @@
       <c r="AC5" s="13"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="E6" s="13"/>
       <c r="H6" s="13"/>
@@ -4395,7 +4401,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="46"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="E7" s="13"/>
       <c r="H7" s="13"/>
@@ -4422,7 +4428,7 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="46"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -4449,7 +4455,7 @@
       <c r="AC8" s="13"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4476,7 +4482,7 @@
       <c r="AC9" s="13"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="E10" s="13"/>
       <c r="H10" s="13"/>
@@ -4497,7 +4503,7 @@
       <c r="AD10" s="12"/>
       <c r="AE10" s="47"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
       <c r="E11" s="13"/>
       <c r="H11" s="13"/>
@@ -4512,7 +4518,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4534,7 +4540,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -4543,7 +4549,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -4577,7 +4583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
@@ -4589,13 +4595,13 @@
       </c>
       <c r="Q16" s="32"/>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="30" t="s">
         <v>33</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
         <v>33</v>
       </c>
@@ -4623,7 +4629,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
         <v>33</v>
       </c>
@@ -4635,13 +4641,13 @@
       </c>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="30"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
@@ -4665,13 +4671,13 @@
   </sheetPr>
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -4722,7 +4728,7 @@
       <c r="AD1" s="15"/>
       <c r="AE1" s="17"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4768,7 @@
       <c r="AD2" s="19"/>
       <c r="AE2" s="21"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -4800,7 +4806,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="19"/>
       <c r="C4" s="20" t="s">
@@ -4846,7 +4852,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
@@ -4876,7 +4882,7 @@
       <c r="AD5" s="19"/>
       <c r="AE5" s="77"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -4912,7 +4918,7 @@
       <c r="AD6" s="19"/>
       <c r="AE6" s="77"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
@@ -4952,7 +4958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20" t="s">
@@ -4998,7 +5004,7 @@
       <c r="AD8" s="19"/>
       <c r="AE8" s="77"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
@@ -5032,7 +5038,7 @@
       <c r="AD9" s="19"/>
       <c r="AE9" s="77"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -5068,7 +5074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -5090,7 +5096,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
@@ -5120,7 +5126,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -5129,7 +5135,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -5163,7 +5169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
@@ -5175,7 +5181,7 @@
       </c>
       <c r="Q16" s="32"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -5184,7 +5190,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>0</v>
       </c>
@@ -5216,7 +5222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>3</v>
       </c>
@@ -5242,7 +5248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
@@ -5264,7 +5270,7 @@
       </c>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20" t="s">
@@ -5288,7 +5294,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -5312,7 +5318,7 @@
       </c>
       <c r="Q22" s="36"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -5326,7 +5332,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>3</v>
       </c>
@@ -5340,7 +5346,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20" t="s">
@@ -5360,7 +5366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
@@ -5372,7 +5378,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
@@ -5384,7 +5390,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -5396,7 +5402,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>3</v>
       </c>
@@ -5432,9 +5438,9 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="44"/>
       <c r="B1" s="53"/>
       <c r="C1" s="44"/>
@@ -5464,7 +5470,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="53"/>
       <c r="B2" s="44"/>
       <c r="C2" s="53"/>
@@ -5485,7 +5491,7 @@
       <c r="X2" s="53"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="53"/>
       <c r="C3" s="44"/>
@@ -5508,7 +5514,7 @@
       <c r="X3" s="44"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="44"/>
       <c r="C4" s="53"/>
@@ -5533,7 +5539,7 @@
       <c r="X4" s="53"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="53"/>
       <c r="C5" s="44"/>
@@ -5550,7 +5556,7 @@
       <c r="X5" s="44"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="53"/>
       <c r="B6" s="44"/>
       <c r="C6" s="53"/>
@@ -5573,7 +5579,7 @@
       <c r="X6" s="53"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="53"/>
       <c r="C7" s="44"/>
@@ -5596,7 +5602,7 @@
       <c r="X7" s="44"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
       <c r="B8" s="44"/>
       <c r="C8" s="53"/>
@@ -5619,7 +5625,7 @@
       <c r="X8" s="53"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="53"/>
       <c r="C9" s="44"/>
@@ -5642,7 +5648,7 @@
       <c r="X9" s="44"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
       <c r="B10" s="44"/>
       <c r="C10" s="53"/>
@@ -5665,7 +5671,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="53"/>
       <c r="C11" s="44"/>
@@ -5682,7 +5688,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="44"/>
       <c r="C12" s="53"/>
@@ -5699,7 +5705,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -5708,7 +5714,7 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -5723,7 +5729,7 @@
       </c>
       <c r="Q14" s="32"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -5740,7 +5746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
@@ -5754,13 +5760,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="30" t="s">
         <v>33</v>
       </c>
@@ -5772,7 +5778,7 @@
       </c>
       <c r="Q18" s="32"/>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
         <v>33</v>
       </c>
@@ -5786,7 +5792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
         <v>33</v>
       </c>
@@ -5800,13 +5806,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="30"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
@@ -5818,7 +5824,7 @@
       </c>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="14:17">
+    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N23" s="34" t="s">
         <v>8</v>
       </c>
@@ -5843,12 +5849,12 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
       <c r="D1" s="53"/>
@@ -5876,7 +5882,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -5894,7 +5900,7 @@
       <c r="W2" s="53"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -5914,7 +5920,7 @@
       <c r="W3" s="53"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -5928,7 +5934,7 @@
       <c r="W4" s="53"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -5948,7 +5954,7 @@
       <c r="W5" s="53"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -5968,7 +5974,7 @@
       <c r="W6" s="53"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -5988,7 +5994,7 @@
       <c r="W7" s="53"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B8" s="53"/>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
@@ -6008,7 +6014,7 @@
       <c r="W8" s="53"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
@@ -6022,7 +6028,7 @@
       <c r="W9" s="53"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B10" s="53"/>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
@@ -6049,7 +6055,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -6066,7 +6072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
@@ -6083,7 +6089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -6092,7 +6098,7 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -6107,7 +6113,7 @@
       </c>
       <c r="Q14" s="39"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="34" t="s">
         <v>33</v>
       </c>
@@ -6151,12 +6157,12 @@
   <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
         <v>2</v>
       </c>
@@ -6181,19 +6187,19 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31">
-      <c r="B2" s="57">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B2" s="103">
         <v>1</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="103">
         <v>5</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="103">
         <v>7</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
       <c r="N2" s="37" t="s">
         <v>6</v>
       </c>
@@ -6216,19 +6222,19 @@
       <c r="AC2" s="57"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31">
-      <c r="B3" s="57">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B3" s="103">
         <v>4</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="103">
         <v>6</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="103">
         <v>19</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
       <c r="N3" s="37" t="s">
         <v>8</v>
       </c>
@@ -6253,19 +6259,19 @@
       <c r="AC3" s="57"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:31">
-      <c r="B4" s="57">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B4" s="103">
         <v>28</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="103">
         <v>43</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="103">
         <v>4</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
       <c r="N4" s="68" t="s">
         <v>8</v>
       </c>
@@ -6292,19 +6298,19 @@
       <c r="AC4" s="57"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31">
-      <c r="B5" s="57">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B5" s="103">
         <v>32</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="103">
         <v>9</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="103">
         <v>2</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
       <c r="N5" s="30"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -6323,19 +6329,19 @@
       <c r="AC5" s="57"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31">
-      <c r="B6" s="57">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B6" s="103">
         <v>0</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="103">
         <v>54</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="103">
         <v>41</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
       <c r="N6" s="37" t="s">
         <v>8</v>
       </c>
@@ -6360,19 +6366,19 @@
       <c r="AC6" s="57"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:31">
-      <c r="B7" s="57">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B7" s="103">
         <v>13</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="103">
         <v>59</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="103">
         <v>28</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
       <c r="N7" s="30" t="s">
         <v>8</v>
       </c>
@@ -6397,19 +6403,19 @@
       <c r="AC7" s="57"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31">
-      <c r="B8" s="57">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B8" s="103">
         <v>10</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="103">
         <v>35</v>
       </c>
-      <c r="D8" s="57">
-        <v>3</v>
-      </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="D8" s="103">
+        <v>3</v>
+      </c>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
       <c r="N8" s="37" t="s">
         <v>8</v>
       </c>
@@ -6434,19 +6440,19 @@
       <c r="AC8" s="57"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31">
-      <c r="B9" s="57">
-        <v>8</v>
-      </c>
-      <c r="C9" s="57">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B9" s="103">
+        <v>8</v>
+      </c>
+      <c r="C9" s="103">
         <v>71</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="103">
         <v>88</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
       <c r="N9" s="30" t="s">
         <v>8</v>
       </c>
@@ -6471,19 +6477,19 @@
       <c r="AC9" s="57"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:31">
-      <c r="B10" s="57">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B10" s="103">
         <v>48</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="103">
         <v>321</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="103">
         <v>35</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
       <c r="N10" s="30"/>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
@@ -6501,19 +6507,19 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" spans="1:31">
-      <c r="B11" s="57">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B11" s="103">
         <v>71</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="103">
         <v>92</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="103">
         <v>69</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
       <c r="N11" s="30" t="s">
         <v>8</v>
       </c>
@@ -6525,7 +6531,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N12" s="30" t="s">
         <v>8</v>
       </c>
@@ -6539,7 +6545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -6556,7 +6562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -6565,7 +6571,7 @@
       <c r="P14" s="31"/>
       <c r="Q14" s="32"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -6580,7 +6586,7 @@
       </c>
       <c r="Q15" s="32"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>33</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="34" t="s">
         <v>33</v>
       </c>
@@ -6608,37 +6614,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="50"/>
       <c r="O18" s="50"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="50"/>
       <c r="O19" s="51"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="50"/>
       <c r="O20" s="51"/>
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
       <c r="P22" s="50"/>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="14:17">
+    <row r="23" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
       <c r="P23" s="50"/>
@@ -6658,9 +6664,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
         <v>2</v>
       </c>
@@ -6685,7 +6691,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N2" s="37" t="s">
         <v>6</v>
       </c>
@@ -6697,7 +6703,7 @@
       <c r="T2" s="4"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="53"/>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -6731,7 +6737,7 @@
       <c r="AD3" s="53"/>
       <c r="AE3" s="56"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -6759,7 +6765,7 @@
       <c r="AD4" s="53"/>
       <c r="AE4" s="56"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -6793,7 +6799,7 @@
       <c r="AD5" s="53"/>
       <c r="AE5" s="56"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -6827,7 +6833,7 @@
       <c r="AD6" s="53"/>
       <c r="AE6" s="56"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -6851,7 +6857,7 @@
       <c r="T7" s="4"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N8" s="30" t="s">
         <v>8</v>
       </c>
@@ -6865,7 +6871,7 @@
       <c r="T8" s="4"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N9" s="30"/>
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
@@ -6873,7 +6879,7 @@
       <c r="T9" s="4"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N10" s="37" t="s">
         <v>8</v>
       </c>
@@ -6897,7 +6903,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N11" s="37" t="s">
         <v>8</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N12" s="30" t="s">
         <v>8</v>
       </c>
@@ -6925,7 +6931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -6934,7 +6940,7 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -6949,7 +6955,7 @@
       </c>
       <c r="Q14" s="39"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -6966,7 +6972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="34" t="s">
         <v>33</v>
       </c>
@@ -6980,37 +6986,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="50"/>
       <c r="O17" s="50"/>
       <c r="P17" s="50"/>
       <c r="Q17" s="50"/>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="50"/>
       <c r="O18" s="51"/>
       <c r="P18" s="50"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="50"/>
       <c r="O19" s="51"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
       <c r="P22" s="50"/>
@@ -7029,12 +7035,12 @@
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -7069,7 +7075,7 @@
       <c r="AD1" s="14"/>
       <c r="AE1" s="45"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -7101,7 +7107,7 @@
       <c r="AD2" s="13"/>
       <c r="AE2" s="46"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7135,7 +7141,7 @@
       <c r="AD3" s="13"/>
       <c r="AE3" s="46"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -7163,7 +7169,7 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="46"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7197,7 +7203,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="46"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7231,7 +7237,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="46"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7265,7 +7271,7 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="46"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7299,7 +7305,7 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="46"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7327,7 +7333,7 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="46"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7361,7 +7367,7 @@
       <c r="AD10" s="12"/>
       <c r="AE10" s="47"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -7383,7 +7389,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -7399,7 +7405,7 @@
       <c r="P12" s="31"/>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -7414,7 +7420,7 @@
       </c>
       <c r="Q13" s="39"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -7431,7 +7437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -7448,13 +7454,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30"/>
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="32"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -7469,7 +7475,7 @@
       </c>
       <c r="Q17" s="39"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -7493,7 +7499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -7517,7 +7523,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7533,7 +7539,7 @@
       <c r="P20" s="31"/>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7555,7 +7561,7 @@
       </c>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="44"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7577,7 +7583,7 @@
       </c>
       <c r="Q22" s="36"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -7589,7 +7595,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="44"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="44"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7601,7 +7607,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="44"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -7613,7 +7619,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="44"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="44"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7625,7 +7631,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="44"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -7637,7 +7643,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="44"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -7649,7 +7655,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -7673,17 +7679,17 @@
   </sheetPr>
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="40" t="s">
@@ -7709,7 +7715,7 @@
       <c r="AD1" s="15"/>
       <c r="AE1" s="17"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N2" s="37" t="s">
         <v>6</v>
       </c>
@@ -7731,7 +7737,7 @@
       <c r="AD2" s="19"/>
       <c r="AE2" s="21"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N3" s="30" t="s">
         <v>8</v>
       </c>
@@ -7757,7 +7763,7 @@
       <c r="AD3" s="19"/>
       <c r="AE3" s="21"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
@@ -7781,7 +7787,7 @@
       <c r="AD4" s="19"/>
       <c r="AE4" s="21"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N5" s="30"/>
       <c r="O5" s="31"/>
       <c r="P5" s="32"/>
@@ -7799,7 +7805,7 @@
       <c r="AD5" s="19"/>
       <c r="AE5" s="21"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N6" s="37" t="s">
         <v>8</v>
       </c>
@@ -7823,7 +7829,7 @@
       <c r="AD6" s="19"/>
       <c r="AE6" s="21"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N7" s="37" t="s">
         <v>8</v>
       </c>
@@ -7847,7 +7853,10 @@
       <c r="AD7" s="19"/>
       <c r="AE7" s="21"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
       <c r="N8" s="37" t="s">
         <v>8</v>
       </c>
@@ -7871,7 +7880,7 @@
       <c r="AD8" s="19"/>
       <c r="AE8" s="21"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N9" s="37" t="s">
         <v>8</v>
       </c>
@@ -7895,7 +7904,7 @@
       <c r="AD9" s="19"/>
       <c r="AE9" s="21"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N10" s="30"/>
       <c r="O10" s="31"/>
       <c r="P10" s="32"/>
@@ -7913,7 +7922,7 @@
       <c r="AD10" s="24"/>
       <c r="AE10" s="25"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N11" s="30" t="s">
         <v>8</v>
       </c>
@@ -7925,7 +7934,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N12" s="30" t="s">
         <v>8</v>
       </c>
@@ -7937,16 +7946,13 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N13" s="30"/>
       <c r="O13" s="31"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -7963,7 +7969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -7980,7 +7986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
@@ -7992,13 +7998,13 @@
       </c>
       <c r="Q16" s="32"/>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="37" t="s">
         <v>33</v>
       </c>
@@ -8012,7 +8018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
         <v>33</v>
       </c>
@@ -8026,7 +8032,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
         <v>33</v>
       </c>
@@ -8038,13 +8044,13 @@
       </c>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="30"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
@@ -8072,9 +8078,9 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -8109,7 +8115,7 @@
       <c r="AD1" s="96"/>
       <c r="AE1" s="100"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -8141,7 +8147,7 @@
       <c r="AD2" s="13"/>
       <c r="AE2" s="101"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -8177,7 +8183,7 @@
       <c r="AD3" s="13"/>
       <c r="AE3" s="101"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="44"/>
@@ -8211,7 +8217,7 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="101"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -8239,7 +8245,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="101"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -8273,7 +8279,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="101"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="44"/>
@@ -8307,7 +8313,7 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="101"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -8341,7 +8347,7 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="101"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -8375,7 +8381,7 @@
       <c r="AD9" s="13"/>
       <c r="AE9" s="101"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -8403,7 +8409,7 @@
       <c r="AD10" s="98"/>
       <c r="AE10" s="102"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -8425,7 +8431,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -8447,7 +8453,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -8456,7 +8462,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -8473,7 +8479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
@@ -8502,13 +8508,13 @@
       </c>
       <c r="Q16" s="32"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B18" s="44"/>
       <c r="D18" s="44"/>
       <c r="N18" s="30" t="s">
@@ -8524,7 +8530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
         <v>33</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="E20" s="44"/>
       <c r="N20" s="30" t="s">
@@ -8552,7 +8558,7 @@
       </c>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
@@ -8561,7 +8567,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
@@ -8589,9 +8595,9 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="44"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -8626,7 +8632,7 @@
       <c r="AD1" s="64"/>
       <c r="AE1" s="72"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -8658,7 +8664,7 @@
       <c r="AD2" s="13"/>
       <c r="AE2" s="73"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -8694,7 +8700,7 @@
       <c r="AD3" s="13"/>
       <c r="AE3" s="73"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -8728,7 +8734,7 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="73"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -8756,7 +8762,7 @@
       <c r="AD5" s="13"/>
       <c r="AE5" s="73"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -8790,7 +8796,7 @@
       <c r="AD6" s="13"/>
       <c r="AE6" s="73"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -8824,7 +8830,7 @@
       <c r="AD7" s="13"/>
       <c r="AE7" s="73"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -8858,7 +8864,7 @@
       <c r="AD8" s="13"/>
       <c r="AE8" s="73"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -8892,7 +8898,7 @@
       <c r="AD9" s="63"/>
       <c r="AE9" s="74"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -8908,7 +8914,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -8930,7 +8936,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -8952,7 +8958,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -8961,7 +8967,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -8978,7 +8984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -8995,7 +9001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
@@ -9007,13 +9013,13 @@
       </c>
       <c r="Q16" s="32"/>
     </row>
-    <row r="17" spans="14:17">
+    <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="14:17">
+    <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="37" t="s">
         <v>33</v>
       </c>
@@ -9027,7 +9033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="14:17">
+    <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="37" t="s">
         <v>33</v>
       </c>
@@ -9041,7 +9047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="14:17">
+    <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
         <v>33</v>
       </c>
@@ -9053,13 +9059,13 @@
       </c>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="14:17">
+    <row r="21" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N21" s="30"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="14:17">
+    <row r="22" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
@@ -9087,9 +9093,9 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -9128,7 +9134,7 @@
       <c r="AD1" s="15"/>
       <c r="AE1" s="17"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -9164,7 +9170,7 @@
       <c r="AD2" s="19"/>
       <c r="AE2" s="21"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -9204,7 +9210,7 @@
       <c r="AD3" s="19"/>
       <c r="AE3" s="21"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -9242,7 +9248,7 @@
       <c r="AD4" s="19"/>
       <c r="AE4" s="21"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -9272,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -9314,7 +9320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
@@ -9360,7 +9366,7 @@
       <c r="AD7" s="19"/>
       <c r="AE7" s="77"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -9398,7 +9404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
@@ -9440,7 +9446,7 @@
       <c r="AD9" s="19"/>
       <c r="AE9" s="21"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -9484,7 +9490,7 @@
       <c r="AD10" s="24"/>
       <c r="AE10" s="25"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -9506,7 +9512,7 @@
       </c>
       <c r="Q11" s="32"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
@@ -9536,7 +9542,7 @@
       </c>
       <c r="Q12" s="32"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -9545,7 +9551,7 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -9562,7 +9568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -9579,7 +9585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
         <v>8</v>
       </c>
@@ -9591,7 +9597,7 @@
       </c>
       <c r="Q16" s="32"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -9600,7 +9606,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>0</v>
       </c>
@@ -9632,7 +9638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>3</v>
       </c>
@@ -9658,7 +9664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -9680,7 +9686,7 @@
       </c>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -9704,7 +9710,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -9726,7 +9732,7 @@
       </c>
       <c r="Q22" s="36"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -9744,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>3</v>
       </c>
@@ -9762,7 +9768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -9778,7 +9784,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="78"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20" t="s">
@@ -9796,7 +9802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
@@ -9808,7 +9814,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="78"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -9820,7 +9826,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="78"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>3</v>
       </c>

--- a/Assets/Levels/Halloween Game Jam 2025 (2).xlsx
+++ b/Assets/Levels/Halloween Game Jam 2025 (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\BLO.OD.-PAC.T\Assets\Levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18BEA1C-B911-441D-B9AA-7610B4F8E111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BE66C7-7377-46E6-9B48-7096B0E2F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7680,7 +7680,7 @@
   <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7881,6 +7881,9 @@
       <c r="AE8" s="21"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
       <c r="N9" s="37" t="s">
         <v>8</v>
       </c>
@@ -7953,9 +7956,6 @@
       <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
       <c r="N14" s="37" t="s">
         <v>8</v>
       </c>

--- a/Assets/Levels/Halloween Game Jam 2025 (2).xlsx
+++ b/Assets/Levels/Halloween Game Jam 2025 (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\BLO.OD.-PAC.T\Assets\Levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BE66C7-7377-46E6-9B48-7096B0E2F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE6DA89-A720-452E-BD44-8070CD016B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1.1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="84">
   <si>
     <t>START</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>highlight column</t>
-  </si>
-  <si>
-    <t>Maxwell could create another path, making you go that way instead</t>
   </si>
   <si>
     <t>-</t>
@@ -293,6 +290,21 @@
   <si>
     <t>Maxwell could ask for the whole screen to be red (because it is his favorite color)</t>
   </si>
+  <si>
+    <t>No Color</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>Hover Over</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
@@ -313,7 +325,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -921,6 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1258,10 +1277,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,6 +1735,18 @@
       <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
@@ -1729,281 +1760,266 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="67"/>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="33" t="s">
+      <c r="P16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="Q16" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="33" t="s">
+      <c r="P17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="Q17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="32" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="A18" s="19"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="19" t="s">
-        <v>1</v>
-      </c>
+      <c r="J18" s="19"/>
       <c r="N18" s="30"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="32"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="A19" s="19"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="J19" s="19"/>
       <c r="N19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="32"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="J20" s="19"/>
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P20" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="32" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="19"/>
       <c r="N21" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P21" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="32" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="J22" s="19"/>
       <c r="N22" s="30"/>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="J23" s="19"/>
       <c r="N23" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O23" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="31" t="s">
-        <v>40</v>
-      </c>
       <c r="Q23" s="32"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="A24" s="19"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="J24" s="19"/>
       <c r="N24" s="34" t="s">
         <v>8</v>
       </c>
       <c r="O24" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="35" t="s">
-        <v>42</v>
-      </c>
       <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20" t="s">
-        <v>3</v>
-      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2098,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="43"/>
       <c r="U3" s="44"/>
@@ -2347,7 +2363,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N14" s="30" t="s">
         <v>8</v>
@@ -2359,24 +2375,24 @@
         <v>24</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="32" t="s">
-        <v>27</v>
-      </c>
       <c r="Q15" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -2384,10 +2400,10 @@
         <v>8</v>
       </c>
       <c r="O16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="Q16" s="32"/>
     </row>
@@ -2399,41 +2415,41 @@
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="32"/>
     </row>
@@ -2448,10 +2464,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="36"/>
     </row>
@@ -2591,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T4" s="55"/>
       <c r="U4" s="13"/>
@@ -2653,7 +2669,7 @@
       <c r="Q6" s="32"/>
       <c r="T6" s="55"/>
       <c r="U6" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -2833,7 +2849,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>8</v>
@@ -2848,19 +2864,19 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="Q15" s="39" t="s">
         <v>27</v>
-      </c>
-      <c r="Q15" s="39" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -2868,13 +2884,13 @@
         <v>8</v>
       </c>
       <c r="O16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="Q16" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="14:17" x14ac:dyDescent="0.3">
@@ -2885,42 +2901,42 @@
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="38" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="Q19" s="39" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="14:17" x14ac:dyDescent="0.3">
@@ -2934,10 +2950,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="31" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="31" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="32"/>
     </row>
@@ -2946,10 +2962,10 @@
         <v>8</v>
       </c>
       <c r="O23" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="35" t="s">
         <v>41</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>42</v>
       </c>
       <c r="Q23" s="36"/>
     </row>
@@ -3059,7 +3075,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="53"/>
@@ -3355,7 +3371,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N14" s="30" t="s">
         <v>8</v>
@@ -3367,24 +3383,24 @@
         <v>24</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="32" t="s">
-        <v>27</v>
-      </c>
       <c r="Q15" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -3392,10 +3408,10 @@
         <v>8</v>
       </c>
       <c r="O16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="Q16" s="32"/>
     </row>
@@ -3407,41 +3423,41 @@
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="32"/>
     </row>
@@ -3456,10 +3472,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="36"/>
     </row>
@@ -3577,7 +3593,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="53"/>
@@ -3778,7 +3794,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>8</v>
@@ -3793,19 +3809,19 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="Q15" s="39" t="s">
         <v>27</v>
-      </c>
-      <c r="Q15" s="39" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -3813,13 +3829,13 @@
         <v>8</v>
       </c>
       <c r="O16" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="Q16" s="39" t="s">
         <v>31</v>
-      </c>
-      <c r="Q16" s="39" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="14:17" x14ac:dyDescent="0.3">
@@ -3830,42 +3846,42 @@
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="38" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="Q19" s="39" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="14:17" x14ac:dyDescent="0.3">
@@ -3879,10 +3895,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="31" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="31" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="32"/>
     </row>
@@ -3891,10 +3907,10 @@
         <v>8</v>
       </c>
       <c r="O23" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="35" t="s">
         <v>41</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>42</v>
       </c>
       <c r="Q23" s="36"/>
     </row>
@@ -3976,7 +3992,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T4" s="4"/>
       <c r="AE4" s="5"/>
@@ -4113,7 +4129,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>8</v>
@@ -4128,19 +4144,19 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="Q15" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -4148,13 +4164,13 @@
         <v>8</v>
       </c>
       <c r="O16" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="Q16" s="39" t="s">
         <v>31</v>
-      </c>
-      <c r="Q16" s="39" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="14:17" x14ac:dyDescent="0.3">
@@ -4165,42 +4181,42 @@
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="38" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="Q19" s="39" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="14:17" x14ac:dyDescent="0.3">
@@ -4214,10 +4230,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="31" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="31" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="32"/>
     </row>
@@ -4226,10 +4242,10 @@
         <v>8</v>
       </c>
       <c r="O23" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="35" t="s">
         <v>41</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>42</v>
       </c>
       <c r="Q23" s="36"/>
     </row>
@@ -4318,7 +4334,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="13"/>
@@ -4551,7 +4567,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="30" t="s">
         <v>8</v>
@@ -4563,24 +4579,24 @@
         <v>24</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="32" t="s">
-        <v>27</v>
-      </c>
       <c r="Q15" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -4588,10 +4604,10 @@
         <v>8</v>
       </c>
       <c r="O16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="Q16" s="32"/>
     </row>
@@ -4603,41 +4619,41 @@
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="32"/>
     </row>
@@ -4652,10 +4668,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="36"/>
     </row>
@@ -4740,7 +4756,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="19"/>
       <c r="N2" s="30" t="s">
@@ -4763,7 +4779,7 @@
       <c r="AA2" s="19"/>
       <c r="AB2" s="19"/>
       <c r="AC2" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD2" s="19"/>
       <c r="AE2" s="21"/>
@@ -4789,7 +4805,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="18"/>
       <c r="U3" s="19"/>
@@ -4803,7 +4819,7 @@
       <c r="AC3" s="19"/>
       <c r="AD3" s="19"/>
       <c r="AE3" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
@@ -4821,7 +4837,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" s="30" t="s">
         <v>8</v>
@@ -4849,7 +4865,7 @@
       <c r="AC4" s="19"/>
       <c r="AD4" s="19"/>
       <c r="AE4" s="77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
@@ -4863,7 +4879,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N5" s="30"/>
       <c r="O5" s="31"/>
@@ -5137,7 +5153,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N14" s="30" t="s">
         <v>8</v>
@@ -5149,24 +5165,24 @@
         <v>24</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="32" t="s">
-        <v>27</v>
-      </c>
       <c r="Q15" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -5174,16 +5190,16 @@
         <v>8</v>
       </c>
       <c r="O16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="Q16" s="32"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
@@ -5210,16 +5226,16 @@
       </c>
       <c r="J18" s="19"/>
       <c r="N18" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,16 +5252,16 @@
       <c r="I19" s="20"/>
       <c r="J19" s="19"/>
       <c r="N19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5276,13 @@
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="32"/>
     </row>
@@ -5287,7 +5303,7 @@
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N21" s="30"/>
       <c r="O21" s="31"/>
@@ -5305,16 +5321,16 @@
       <c r="H22" s="78"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N22" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="36"/>
     </row>
@@ -5327,7 +5343,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
       <c r="H23" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
@@ -5530,7 +5546,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T4" s="55"/>
       <c r="U4" s="44"/>
@@ -5716,7 +5732,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N14" s="30" t="s">
         <v>8</v>
@@ -5731,19 +5747,19 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="Q15" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -5751,13 +5767,13 @@
         <v>8</v>
       </c>
       <c r="O16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="Q16" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="14:17" x14ac:dyDescent="0.3">
@@ -5768,42 +5784,42 @@
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="32"/>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="32" t="s">
         <v>35</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="14:17" x14ac:dyDescent="0.3">
@@ -5817,10 +5833,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="31" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="31" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="32"/>
     </row>
@@ -5829,10 +5845,10 @@
         <v>8</v>
       </c>
       <c r="O23" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="35" t="s">
         <v>41</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>42</v>
       </c>
       <c r="Q23" s="36"/>
     </row>
@@ -6063,13 +6079,13 @@
         <v>8</v>
       </c>
       <c r="O11" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="38" t="s">
+      <c r="Q11" s="39" t="s">
         <v>27</v>
-      </c>
-      <c r="Q11" s="39" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
@@ -6080,13 +6096,13 @@
         <v>8</v>
       </c>
       <c r="O12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="Q12" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
@@ -6100,48 +6116,48 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O14" s="38" t="s">
         <v>23</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="Q15" s="39" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O16" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="36" t="s">
         <v>37</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6282,7 +6298,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T4" s="57">
         <v>28</v>
@@ -6536,13 +6552,13 @@
         <v>8</v>
       </c>
       <c r="O12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="Q12" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
@@ -6553,18 +6569,18 @@
         <v>8</v>
       </c>
       <c r="O13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="Q13" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" s="30"/>
       <c r="O14" s="31"/>
@@ -6573,45 +6589,45 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>23</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="32"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="32" t="s">
         <v>35</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N17" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O17" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="36" t="s">
         <v>37</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
@@ -6908,13 +6924,13 @@
         <v>8</v>
       </c>
       <c r="O11" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="38" t="s">
+      <c r="Q11" s="39" t="s">
         <v>27</v>
-      </c>
-      <c r="Q11" s="39" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
@@ -6922,13 +6938,13 @@
         <v>8</v>
       </c>
       <c r="O12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="Q12" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
@@ -6942,48 +6958,48 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O14" s="38" t="s">
         <v>23</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="Q15" s="39" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="N16" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O16" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="36" t="s">
         <v>37</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="14:17" x14ac:dyDescent="0.3">
@@ -7422,36 +7438,36 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="38" t="s">
+      <c r="Q14" s="39" t="s">
         <v>27</v>
-      </c>
-      <c r="Q14" s="39" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="Q15" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="Q15" s="32" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -7462,16 +7478,16 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O17" s="38" t="s">
         <v>23</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="39"/>
     </row>
@@ -7487,16 +7503,16 @@
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="N18" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="Q18" s="39" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,16 +7527,16 @@
       <c r="I19" s="13"/>
       <c r="J19" s="44"/>
       <c r="N19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,10 +7570,10 @@
         <v>8</v>
       </c>
       <c r="O21" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="31" t="s">
         <v>39</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>40</v>
       </c>
       <c r="Q21" s="32"/>
     </row>
@@ -7576,10 +7592,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="35" t="s">
         <v>41</v>
-      </c>
-      <c r="P22" s="35" t="s">
-        <v>42</v>
       </c>
       <c r="Q22" s="36"/>
     </row>
@@ -7679,15 +7695,15 @@
   </sheetPr>
   <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -7701,7 +7717,7 @@
       <c r="P1" s="42"/>
       <c r="Q1" s="42"/>
       <c r="T1" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
@@ -7748,7 +7764,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="75"/>
       <c r="U3" s="19"/>
@@ -7882,7 +7898,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" s="37" t="s">
         <v>8</v>
@@ -7966,24 +7982,24 @@
         <v>24</v>
       </c>
       <c r="Q14" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="32" t="s">
-        <v>27</v>
-      </c>
       <c r="Q15" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -7991,10 +8007,10 @@
         <v>8</v>
       </c>
       <c r="O16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="Q16" s="32"/>
     </row>
@@ -8006,41 +8022,41 @@
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="38" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="32"/>
     </row>
@@ -8055,10 +8071,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="36"/>
     </row>
@@ -8168,7 +8184,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="97"/>
       <c r="U3" s="13"/>
@@ -8464,7 +8480,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N14" s="30" t="s">
         <v>8</v>
@@ -8476,24 +8492,24 @@
         <v>24</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="32" t="s">
-        <v>27</v>
-      </c>
       <c r="Q15" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -8501,10 +8517,10 @@
         <v>8</v>
       </c>
       <c r="O16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="Q16" s="32"/>
     </row>
@@ -8518,43 +8534,43 @@
       <c r="B18" s="44"/>
       <c r="D18" s="44"/>
       <c r="N18" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="N19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="E20" s="44"/>
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="32"/>
     </row>
@@ -8572,10 +8588,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="36"/>
     </row>
@@ -8685,7 +8701,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="43"/>
       <c r="U3" s="13"/>
@@ -8969,7 +8985,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>8</v>
@@ -8981,24 +8997,24 @@
         <v>24</v>
       </c>
       <c r="Q14" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="39" t="s">
-        <v>27</v>
-      </c>
       <c r="Q15" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -9006,10 +9022,10 @@
         <v>8</v>
       </c>
       <c r="O16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="Q16" s="32"/>
     </row>
@@ -9021,41 +9037,41 @@
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N18" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="38" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N19" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.3">
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="32"/>
     </row>
@@ -9070,10 +9086,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="36"/>
     </row>
@@ -9191,7 +9207,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" s="18"/>
       <c r="U3" s="19"/>
@@ -9565,24 +9581,24 @@
         <v>24</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N15" s="30" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="32" t="s">
-        <v>27</v>
-      </c>
       <c r="Q15" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -9590,16 +9606,16 @@
         <v>8</v>
       </c>
       <c r="O16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="P16" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="Q16" s="32"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="31"/>
@@ -9626,16 +9642,16 @@
         <v>3</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9652,16 +9668,16 @@
       <c r="I19" s="19"/>
       <c r="J19" s="78"/>
       <c r="N19" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9676,13 +9692,13 @@
       <c r="I20" s="19"/>
       <c r="J20" s="78"/>
       <c r="N20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="32"/>
     </row>
@@ -9725,10 +9741,10 @@
         <v>8</v>
       </c>
       <c r="O22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>40</v>
       </c>
       <c r="Q22" s="36"/>
     </row>
